--- a/admin/product/sanpham.xlsx
+++ b/admin/product/sanpham.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
